--- a/jyx2/Assets/Mods/JYX2/Configs/Lua人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/Lua人物.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\jytest\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C27A2F-8E3F-40AF-B601-BE90166326F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415961D-03C2-4213-96F6-C9C62EE59085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="2400" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -116,12 +116,6 @@
     <t>IQ</t>
   </si>
   <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
     <t>代号</t>
   </si>
   <si>
@@ -1526,6 +1520,14 @@
   </si>
   <si>
     <t>LuaConfigGen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills-Id,Level</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items-Id,Count</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1622,7 +1624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,6 +1641,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2008,252 +2013,252 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AP2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
@@ -2315,7 +2320,7 @@
         <v>18</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AB4" t="s">
         <v>19</v>
@@ -2330,28 +2335,28 @@
         <v>22</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AG4" t="s">
         <v>23</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AK4" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>26</v>
+      <c r="AN4" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
@@ -2365,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2473,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -2490,10 +2495,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2598,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AP6">
         <v>950</v>
@@ -2618,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -2726,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AP7">
         <v>952</v>
@@ -2746,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2854,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
@@ -2871,10 +2876,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2979,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
@@ -2996,10 +3001,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -3104,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -3121,10 +3126,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -3229,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -3246,10 +3251,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -3354,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -3371,10 +3376,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -3479,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -3496,10 +3501,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -3604,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AO14" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AP14">
         <v>954</v>
@@ -3624,10 +3629,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -3732,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AO15" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
@@ -3749,10 +3754,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -3857,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AO16" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -3874,10 +3879,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -3982,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -3999,10 +4004,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -4107,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="AN18" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -4124,10 +4129,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -4232,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
@@ -4249,10 +4254,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -4357,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
@@ -4374,10 +4379,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -4482,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="AN21" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AP21">
         <v>956</v>
@@ -4502,10 +4507,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -4610,10 +4615,10 @@
         <v>0</v>
       </c>
       <c r="AN22" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AO22" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AP22">
         <v>958</v>
@@ -4630,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -4738,10 +4743,10 @@
         <v>0</v>
       </c>
       <c r="AN23" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AO23" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
@@ -4755,10 +4760,10 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -4863,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="AN24" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AO24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
@@ -4880,10 +4885,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -4988,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="AN25" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AO25" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
@@ -5005,10 +5010,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -5113,10 +5118,10 @@
         <v>0</v>
       </c>
       <c r="AN26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AO26" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
@@ -5130,10 +5135,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -5238,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="AN27" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AO27" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -5255,10 +5260,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -5363,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="AN28" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AO28" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
@@ -5380,10 +5385,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -5488,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="AN29" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AO29" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -5505,10 +5510,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
@@ -5613,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="AN30" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AO30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AP30">
         <v>960</v>
@@ -5633,10 +5638,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -5741,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AO31" s="5">
         <v>-1</v>
@@ -5758,10 +5763,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -5866,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="AN32" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AO32" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -5883,10 +5888,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -5991,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="AN33" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AO33" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AP33">
         <v>962</v>
@@ -6011,10 +6016,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -6119,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="AN34" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AO34" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AP34">
         <v>964</v>
@@ -6139,10 +6144,10 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -6247,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AO35" s="5">
         <v>-1</v>
@@ -6264,10 +6269,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -6372,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="AN36" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO36" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
@@ -6389,10 +6394,10 @@
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -6497,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AO37" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
@@ -6514,10 +6519,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -6622,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="AN38" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AO38" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
@@ -6639,10 +6644,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -6747,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AO39" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -6764,10 +6769,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -6872,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO40" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP40">
         <v>966</v>
@@ -6892,10 +6897,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -7000,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AO41" s="5">
         <v>-1</v>
@@ -7020,10 +7025,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -7128,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AP42">
         <v>970</v>
@@ -7148,10 +7153,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -7256,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="AN43" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO43" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AP43" s="2">
         <v>972</v>
@@ -7276,10 +7281,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -7384,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO44" s="5">
         <v>-1</v>
@@ -7401,10 +7406,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -7509,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO45" s="5">
         <v>-1</v>
@@ -7526,10 +7531,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -7634,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO46" s="5">
         <v>-1</v>
@@ -7651,10 +7656,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -7759,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO47" s="5">
         <v>-1</v>
@@ -7776,10 +7781,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -7884,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AO48" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
@@ -7901,10 +7906,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -8009,10 +8014,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AO49" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AP49">
         <v>974</v>
@@ -8029,10 +8034,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -8137,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="AN50" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO50" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AP50">
         <v>976</v>
@@ -8157,10 +8162,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -8265,10 +8270,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AO51" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
@@ -8282,10 +8287,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F52" s="2">
         <v>1</v>
@@ -8390,10 +8395,10 @@
         <v>0</v>
       </c>
       <c r="AN52" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AO52" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AP52">
         <v>978</v>
@@ -8410,10 +8415,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -8518,10 +8523,10 @@
         <v>0</v>
       </c>
       <c r="AN53" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO53" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AP53">
         <v>980</v>
@@ -8538,10 +8543,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -8646,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AO54" s="5">
         <v>-1</v>
@@ -8666,10 +8671,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -8774,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="AN55" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AO55" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
@@ -8791,10 +8796,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -8899,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="AN56" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AO56" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AP56">
         <v>984</v>
@@ -8919,10 +8924,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -9027,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="AN57" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO57" s="5">
         <v>-1</v>
@@ -9044,10 +9049,10 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
@@ -9152,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="AN58" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AO58" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AP58">
         <v>986</v>
@@ -9172,10 +9177,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F59" s="2">
         <v>0</v>
@@ -9280,10 +9285,10 @@
         <v>0</v>
       </c>
       <c r="AN59" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AO59" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AP59">
         <v>988</v>
@@ -9300,10 +9305,10 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -9408,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="AN60" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AO60" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
@@ -9425,10 +9430,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
@@ -9533,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="AN61" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AO61" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
@@ -9550,10 +9555,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -9658,10 +9663,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AO62" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
@@ -9675,10 +9680,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F63" s="2">
         <v>0</v>
@@ -9783,10 +9788,10 @@
         <v>0</v>
       </c>
       <c r="AN63" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AO63" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AP63">
         <v>990</v>
@@ -9803,10 +9808,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
@@ -9911,10 +9916,10 @@
         <v>0</v>
       </c>
       <c r="AN64" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AO64" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AP64">
         <v>992</v>
@@ -9931,10 +9936,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -10039,10 +10044,10 @@
         <v>0</v>
       </c>
       <c r="AN65" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO65" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
@@ -10056,10 +10061,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -10164,10 +10169,10 @@
         <v>0</v>
       </c>
       <c r="AN66" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AO66" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AP66">
         <v>994</v>
@@ -10184,10 +10189,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
@@ -10292,10 +10297,10 @@
         <v>0</v>
       </c>
       <c r="AN67" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AO67" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
@@ -10309,10 +10314,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
@@ -10417,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="AN68" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AO68" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AP68">
         <v>996</v>
@@ -10437,10 +10442,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
@@ -10545,10 +10550,10 @@
         <v>0</v>
       </c>
       <c r="AN69" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AO69" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
@@ -10562,10 +10567,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
@@ -10670,10 +10675,10 @@
         <v>0</v>
       </c>
       <c r="AN70" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AO70" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
@@ -10687,10 +10692,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
@@ -10795,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="AN71" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO71" s="5">
         <v>-1</v>
@@ -10812,10 +10817,10 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F72" s="2">
         <v>0</v>
@@ -10920,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="AN72" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AO72" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
@@ -10937,10 +10942,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
@@ -11045,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AN73" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AO73" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
@@ -11062,10 +11067,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F74" s="2">
         <v>0</v>
@@ -11170,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="AN74" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AO74" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
@@ -11187,10 +11192,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F75" s="2">
         <v>0</v>
@@ -11295,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="AN75" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AO75" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
@@ -11312,10 +11317,10 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
@@ -11420,10 +11425,10 @@
         <v>0</v>
       </c>
       <c r="AN76" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AO76" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
@@ -11437,10 +11442,10 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F77" s="2">
         <v>0</v>
@@ -11545,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="AN77" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AO77" s="5">
         <v>-1</v>
@@ -11562,10 +11567,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
@@ -11670,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="AN78" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO78" s="5">
         <v>-1</v>
@@ -11687,10 +11692,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
@@ -11795,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="AN79" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO79" s="5">
         <v>-1</v>
@@ -11812,10 +11817,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F80" s="2">
         <v>0</v>
@@ -11920,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="AN80" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO80" s="5">
         <v>-1</v>
@@ -11937,10 +11942,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
@@ -12045,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="AN81" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AO81" s="5">
         <v>-1</v>
@@ -12065,10 +12070,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
@@ -12173,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AN82" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AO82" s="5">
         <v>-1</v>
@@ -12190,10 +12195,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
@@ -12298,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="AN83" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AO83" s="5">
         <v>-1</v>
@@ -12315,10 +12320,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
@@ -12423,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="AN84" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO84" s="5">
         <v>-1</v>
@@ -12440,10 +12445,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
@@ -12548,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="AN85" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AO85" s="5">
         <v>-1</v>
@@ -12565,10 +12570,10 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
@@ -12673,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="AN86" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO86" s="5">
         <v>-1</v>
@@ -12690,10 +12695,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F87" s="2">
         <v>0</v>
@@ -12798,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="AN87" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO87" s="5">
         <v>-1</v>
@@ -12815,10 +12820,10 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
@@ -12923,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="AN88" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AO88" s="5">
         <v>-1</v>
@@ -12940,10 +12945,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
@@ -13048,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AN89" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AO89" s="5">
         <v>-1</v>
@@ -13065,10 +13070,10 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F90" s="2">
         <v>0</v>
@@ -13173,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AO90" s="5">
         <v>-1</v>
@@ -13190,10 +13195,10 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
@@ -13298,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AO91" s="5">
         <v>-1</v>
@@ -13315,10 +13320,10 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
@@ -13423,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="AN92" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AO92" s="5">
         <v>-1</v>
@@ -13440,10 +13445,10 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F93" s="2">
         <v>0</v>
@@ -13548,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="AN93" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO93" s="5">
         <v>-1</v>
@@ -13565,10 +13570,10 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
@@ -13673,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="AN94" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO94" s="5">
         <v>-1</v>
@@ -13690,10 +13695,10 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F95" s="2">
         <v>0</v>
@@ -13798,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="AN95" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AO95" s="5">
         <v>-1</v>
@@ -13815,10 +13820,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F96" s="2">
         <v>0</v>
@@ -13923,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AO96" s="5">
         <v>-1</v>
@@ -13940,10 +13945,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F97" s="2">
         <v>0</v>
@@ -14048,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AO97" s="5">
         <v>-1</v>
@@ -14065,10 +14070,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F98" s="2">
         <v>0</v>
@@ -14173,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="AN98" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AO98" s="5">
         <v>-1</v>
@@ -14190,10 +14195,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
@@ -14298,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="AN99" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AO99" s="5">
         <v>-1</v>
@@ -14315,10 +14320,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
@@ -14423,7 +14428,7 @@
         <v>0</v>
       </c>
       <c r="AN100" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AO100" s="5">
         <v>-1</v>
@@ -14440,10 +14445,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -14548,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="AN101" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AO101" s="5">
         <v>-1</v>
@@ -14565,10 +14570,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -14673,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="AN102" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AO102" s="5">
         <v>-1</v>
@@ -14690,10 +14695,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -14798,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="AN103" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AO103" s="5">
         <v>-1</v>
@@ -14815,10 +14820,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -14923,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="AN104" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO104" s="5">
         <v>-1</v>
@@ -14940,10 +14945,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F105" s="2">
         <v>0</v>
@@ -15048,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="AN105" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO105" s="5">
         <v>-1</v>
@@ -15065,10 +15070,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F106" s="2">
         <v>0</v>
@@ -15173,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="AN106" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO106" s="5">
         <v>-1</v>
@@ -15190,10 +15195,10 @@
         <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F107" s="2">
         <v>0</v>
@@ -15298,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="AN107" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AO107" s="5">
         <v>-1</v>
@@ -15315,10 +15320,10 @@
         <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
@@ -15423,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="AN108" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AO108" s="5">
         <v>-1</v>
@@ -15440,10 +15445,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F109" s="2">
         <v>0</v>
@@ -15548,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="AN109" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AO109" s="5">
         <v>-1</v>
@@ -15565,10 +15570,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F110" s="2">
         <v>0</v>
@@ -15673,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="AN110" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AO110" s="5">
         <v>-1</v>
@@ -15690,10 +15695,10 @@
         <v>5</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F111" s="2">
         <v>0</v>
@@ -15798,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="AN111" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AO111" s="5">
         <v>-1</v>
@@ -15815,10 +15820,10 @@
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F112" s="2">
         <v>0</v>
@@ -15923,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="AN112" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AO112" s="5">
         <v>-1</v>
@@ -15940,10 +15945,10 @@
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F113" s="2">
         <v>0</v>
@@ -16048,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="AN113" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AO113" s="5">
         <v>-1</v>
@@ -16065,10 +16070,10 @@
         <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
@@ -16173,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="AN114" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AO114" s="5">
         <v>-1</v>
@@ -16190,10 +16195,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F115" s="2">
         <v>0</v>
@@ -16298,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="AN115" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AO115" s="5">
         <v>-1</v>
@@ -16315,10 +16320,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F116" s="2">
         <v>0</v>
@@ -16423,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="AN116" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO116" s="5">
         <v>-1</v>
@@ -16440,10 +16445,10 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F117" s="2">
         <v>0</v>
@@ -16548,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="AN117" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO117" s="5">
         <v>-1</v>
@@ -16565,10 +16570,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
@@ -16673,7 +16678,7 @@
         <v>0</v>
       </c>
       <c r="AN118" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AO118" s="5">
         <v>-1</v>
@@ -16690,10 +16695,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
@@ -16798,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="AN119" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO119" s="5">
         <v>-1</v>
@@ -16815,10 +16820,10 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F120" s="2">
         <v>0</v>
@@ -16923,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="AN120" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AO120" s="5">
         <v>-1</v>
@@ -16940,10 +16945,10 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
@@ -17048,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="AN121" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AO121" s="5">
         <v>-1</v>
@@ -17065,10 +17070,10 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
@@ -17173,7 +17178,7 @@
         <v>0</v>
       </c>
       <c r="AN122" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AO122" s="5">
         <v>-1</v>
@@ -17190,10 +17195,10 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F123" s="2">
         <v>0</v>
@@ -17298,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="AN123" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AO123" s="5">
         <v>-1</v>
@@ -17315,10 +17320,10 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F124" s="2">
         <v>0</v>
@@ -17423,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="AN124" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AO124" s="5">
         <v>-1</v>
@@ -17440,10 +17445,10 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F125" s="2">
         <v>0</v>
@@ -17548,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="AN125" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AO125" s="5">
         <v>-1</v>
@@ -17565,10 +17570,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F126" s="2">
         <v>0</v>
@@ -17673,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="AN126" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO126" s="5">
         <v>-1</v>
@@ -17690,10 +17695,10 @@
         <v>5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
@@ -17798,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="AN127" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO127" s="5">
         <v>-1</v>
@@ -17815,10 +17820,10 @@
         <v>5</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
@@ -17923,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="AN128" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO128" s="5">
         <v>-1</v>
@@ -17940,10 +17945,10 @@
         <v>5</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
@@ -18048,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="AN129" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO129" s="5">
         <v>-1</v>
@@ -18065,10 +18070,10 @@
         <v>5</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -18173,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="AN130" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO130" s="5">
         <v>-1</v>
@@ -18190,10 +18195,10 @@
         <v>5</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F131" s="2">
         <v>0</v>
@@ -18298,7 +18303,7 @@
         <v>0</v>
       </c>
       <c r="AN131" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO131" s="5">
         <v>-1</v>
@@ -18315,10 +18320,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
@@ -18423,7 +18428,7 @@
         <v>0</v>
       </c>
       <c r="AN132" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AO132" s="5">
         <v>-1</v>
@@ -18440,10 +18445,10 @@
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F133" s="2">
         <v>0</v>
@@ -18548,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="AN133" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AO133" s="5">
         <v>-1</v>
@@ -18565,10 +18570,10 @@
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
@@ -18673,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="AN134" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AO134" s="5">
         <v>-1</v>
@@ -18690,10 +18695,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
@@ -18798,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="AN135" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AO135" s="5">
         <v>-1</v>
@@ -18815,10 +18820,10 @@
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
@@ -18923,10 +18928,10 @@
         <v>0</v>
       </c>
       <c r="AN136" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO136" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.25">
@@ -18940,10 +18945,10 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F137" s="2">
         <v>0</v>
@@ -19048,10 +19053,10 @@
         <v>0</v>
       </c>
       <c r="AN137" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AO137" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.25">
@@ -19065,10 +19070,10 @@
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F138" s="2">
         <v>0</v>
@@ -19173,10 +19178,10 @@
         <v>0</v>
       </c>
       <c r="AN138" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AO138" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.25">
@@ -19190,10 +19195,10 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
@@ -19298,10 +19303,10 @@
         <v>0</v>
       </c>
       <c r="AN139" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AO139" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.25">
@@ -19315,10 +19320,10 @@
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>
@@ -19423,10 +19428,10 @@
         <v>0</v>
       </c>
       <c r="AN140" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO140" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.25">
@@ -19440,10 +19445,10 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
@@ -19548,10 +19553,10 @@
         <v>0</v>
       </c>
       <c r="AN141" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AO141" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.25">
@@ -19565,10 +19570,10 @@
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
@@ -19673,10 +19678,10 @@
         <v>0</v>
       </c>
       <c r="AN142" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO142" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.25">
@@ -19690,10 +19695,10 @@
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F143" s="2">
         <v>0</v>
@@ -19798,10 +19803,10 @@
         <v>0</v>
       </c>
       <c r="AN143" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AO143" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.25">
@@ -19815,10 +19820,10 @@
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
@@ -19923,10 +19928,10 @@
         <v>0</v>
       </c>
       <c r="AN144" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO144" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.25">
@@ -19940,10 +19945,10 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -20048,10 +20053,10 @@
         <v>0</v>
       </c>
       <c r="AN145" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO145" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.25">
@@ -20065,10 +20070,10 @@
         <v>6</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F146" s="2">
         <v>0</v>
@@ -20173,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="AN146" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AO146" s="5">
         <v>-1</v>
@@ -20190,10 +20195,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
@@ -20298,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="AN147" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AO147" s="5">
         <v>-1</v>
@@ -20315,10 +20320,10 @@
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
@@ -20423,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="AN148" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AO148" s="5">
         <v>-1</v>
@@ -20440,10 +20445,10 @@
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
@@ -20548,7 +20553,7 @@
         <v>0</v>
       </c>
       <c r="AN149" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AO149" s="5">
         <v>-1</v>
@@ -20565,10 +20570,10 @@
         <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
@@ -20673,7 +20678,7 @@
         <v>0</v>
       </c>
       <c r="AN150" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO150" s="5">
         <v>-1</v>
@@ -20690,10 +20695,10 @@
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
@@ -20798,7 +20803,7 @@
         <v>0</v>
       </c>
       <c r="AN151" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO151" s="5">
         <v>-1</v>
@@ -20815,10 +20820,10 @@
         <v>6</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
@@ -20923,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="AN152" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AO152" s="5">
         <v>-1</v>
@@ -20940,10 +20945,10 @@
         <v>6</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F153" s="2">
         <v>0</v>
@@ -21048,7 +21053,7 @@
         <v>0</v>
       </c>
       <c r="AN153" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AO153" s="5">
         <v>-1</v>
@@ -21065,10 +21070,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F154" s="2">
         <v>0</v>
@@ -21173,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="AN154" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AO154" s="5">
         <v>-1</v>
@@ -21190,10 +21195,10 @@
         <v>6</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
@@ -21298,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="AN155" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AO155" s="5">
         <v>-1</v>
@@ -21315,10 +21320,10 @@
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
@@ -21423,10 +21428,10 @@
         <v>0</v>
       </c>
       <c r="AN156" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AO156" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.25">
@@ -21440,10 +21445,10 @@
         <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F157" s="2">
         <v>0</v>
@@ -21548,10 +21553,10 @@
         <v>0</v>
       </c>
       <c r="AN157" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AO157" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.25">
@@ -21565,10 +21570,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
@@ -21673,10 +21678,10 @@
         <v>0</v>
       </c>
       <c r="AN158" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO158" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.25">
@@ -21690,10 +21695,10 @@
         <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F159" s="2">
         <v>0</v>
@@ -21798,10 +21803,10 @@
         <v>0</v>
       </c>
       <c r="AN159" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO159" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.25">
@@ -21815,10 +21820,10 @@
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
@@ -21923,10 +21928,10 @@
         <v>0</v>
       </c>
       <c r="AN160" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO160" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.25">
@@ -21940,10 +21945,10 @@
         <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F161" s="2">
         <v>0</v>
@@ -22048,10 +22053,10 @@
         <v>0</v>
       </c>
       <c r="AN161" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AO161" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.25">
@@ -22065,10 +22070,10 @@
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F162" s="2">
         <v>0</v>
@@ -22173,10 +22178,10 @@
         <v>0</v>
       </c>
       <c r="AN162" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AO162" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.25">
@@ -22190,10 +22195,10 @@
         <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
@@ -22298,10 +22303,10 @@
         <v>0</v>
       </c>
       <c r="AN163" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AO163" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.25">
@@ -22315,10 +22320,10 @@
         <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
@@ -22423,10 +22428,10 @@
         <v>0</v>
       </c>
       <c r="AN164" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AO164" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.25">
@@ -22440,10 +22445,10 @@
         <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F165" s="2">
         <v>0</v>
@@ -22548,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="AN165" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AO165" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.25">
@@ -22565,10 +22570,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F166" s="2">
         <v>0</v>
@@ -22673,10 +22678,10 @@
         <v>0</v>
       </c>
       <c r="AN166" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AO166" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.25">
@@ -22690,10 +22695,10 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F167" s="2">
         <v>0</v>
@@ -22798,10 +22803,10 @@
         <v>0</v>
       </c>
       <c r="AN167" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AO167" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.25">
@@ -22815,10 +22820,10 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F168" s="2">
         <v>0</v>
@@ -22923,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="AN168" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AO168" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.25">
@@ -22940,10 +22945,10 @@
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
@@ -23048,10 +23053,10 @@
         <v>0</v>
       </c>
       <c r="AN169" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO169" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.25">
@@ -23065,10 +23070,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
@@ -23173,10 +23178,10 @@
         <v>0</v>
       </c>
       <c r="AN170" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO170" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.25">
@@ -23190,10 +23195,10 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
@@ -23298,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="AN171" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO171" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.25">
@@ -23315,10 +23320,10 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
@@ -23423,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="AN172" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO172" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.25">
@@ -23440,10 +23445,10 @@
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
@@ -23548,10 +23553,10 @@
         <v>0</v>
       </c>
       <c r="AN173" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AO173" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.25">
@@ -23565,10 +23570,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
@@ -23673,10 +23678,10 @@
         <v>0</v>
       </c>
       <c r="AN174" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AO174" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.25">
@@ -23690,10 +23695,10 @@
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
@@ -23798,10 +23803,10 @@
         <v>0</v>
       </c>
       <c r="AN175" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AO175" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.25">
@@ -23815,10 +23820,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
@@ -23923,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="AN176" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO176" s="5">
         <v>-1</v>
@@ -23940,10 +23945,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
@@ -24048,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="AN177" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO177" s="5">
         <v>-1</v>
@@ -24065,10 +24070,10 @@
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
@@ -24173,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="AN178" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO178" s="5">
         <v>-1</v>
@@ -24190,10 +24195,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
@@ -24298,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="AN179" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AO179" s="5">
         <v>-1</v>
@@ -24315,10 +24320,10 @@
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
@@ -24423,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="AN180" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AO180" s="5">
         <v>-1</v>
@@ -24440,10 +24445,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
@@ -24548,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="AN181" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AO181" s="5">
         <v>-1</v>
@@ -24565,10 +24570,10 @@
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
@@ -24673,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="AN182" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AO182" s="5">
         <v>-1</v>
@@ -24690,10 +24695,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F183" s="2">
         <v>0</v>
@@ -24798,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="AN183" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AO183" s="5">
         <v>-1</v>
@@ -24815,10 +24820,10 @@
         <v>5</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F184" s="2">
         <v>0</v>
@@ -24923,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AO184" s="5">
         <v>-1</v>
@@ -24940,10 +24945,10 @@
         <v>5</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F185" s="2">
         <v>0</v>
@@ -25048,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="AN185" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AO185" s="5">
         <v>-1</v>
@@ -25065,10 +25070,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
@@ -25173,10 +25178,10 @@
         <v>0</v>
       </c>
       <c r="AN186" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AO186" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.25">
@@ -25190,10 +25195,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
@@ -25298,10 +25303,10 @@
         <v>0</v>
       </c>
       <c r="AN187" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AO187" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.25">
@@ -25315,10 +25320,10 @@
         <v>5</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F188" s="2">
         <v>0</v>
@@ -25423,10 +25428,10 @@
         <v>0</v>
       </c>
       <c r="AN188" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AO188" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.25">
@@ -25440,10 +25445,10 @@
         <v>5</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F189" s="2">
         <v>0</v>
@@ -25548,10 +25553,10 @@
         <v>0</v>
       </c>
       <c r="AN189" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AO189" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.25">
@@ -25565,10 +25570,10 @@
         <v>5</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F190" s="2">
         <v>0</v>
@@ -25673,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="AN190" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AO190" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.25">
@@ -25690,10 +25695,10 @@
         <v>5</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F191" s="2">
         <v>0</v>
@@ -25798,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="AN191" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AO191" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.25">
@@ -25815,10 +25820,10 @@
         <v>5</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F192" s="2">
         <v>0</v>
@@ -25923,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="AN192" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AO192" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.25">
@@ -25940,10 +25945,10 @@
         <v>5</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F193" s="2">
         <v>0</v>
@@ -26048,10 +26053,10 @@
         <v>0</v>
       </c>
       <c r="AN193" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AO193" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.25">
@@ -26065,10 +26070,10 @@
         <v>5</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F194" s="2">
         <v>0</v>
@@ -26173,10 +26178,10 @@
         <v>0</v>
       </c>
       <c r="AN194" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AO194" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.25">
@@ -26190,10 +26195,10 @@
         <v>5</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F195" s="2">
         <v>0</v>
@@ -26298,10 +26303,10 @@
         <v>0</v>
       </c>
       <c r="AN195" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AO195" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.25">
@@ -26315,10 +26320,10 @@
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F196" s="2">
         <v>0</v>
@@ -26423,10 +26428,10 @@
         <v>0</v>
       </c>
       <c r="AN196" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AO196" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.25">
@@ -26440,10 +26445,10 @@
         <v>7</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F197" s="2">
         <v>0</v>
@@ -26548,10 +26553,10 @@
         <v>0</v>
       </c>
       <c r="AN197" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AO197" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.25">
@@ -26565,10 +26570,10 @@
         <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F198" s="2">
         <v>0</v>
@@ -26673,10 +26678,10 @@
         <v>0</v>
       </c>
       <c r="AN198" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AO198" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.25">
@@ -26690,10 +26695,10 @@
         <v>7</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F199" s="2">
         <v>0</v>
@@ -26798,10 +26803,10 @@
         <v>0</v>
       </c>
       <c r="AN199" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AO199" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.25">
@@ -26815,10 +26820,10 @@
         <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
@@ -26923,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="AN200" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AO200" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.25">
@@ -26940,10 +26945,10 @@
         <v>7</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F201" s="2">
         <v>0</v>
@@ -27048,10 +27053,10 @@
         <v>0</v>
       </c>
       <c r="AN201" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AO201" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.25">
@@ -27065,10 +27070,10 @@
         <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F202" s="2">
         <v>0</v>
@@ -27173,10 +27178,10 @@
         <v>0</v>
       </c>
       <c r="AN202" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AO202" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.25">
@@ -27190,10 +27195,10 @@
         <v>7</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F203" s="2">
         <v>0</v>
@@ -27298,10 +27303,10 @@
         <v>0</v>
       </c>
       <c r="AN203" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AO203" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.25">
@@ -27315,10 +27320,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F204" s="2">
         <v>0</v>
@@ -27423,10 +27428,10 @@
         <v>0</v>
       </c>
       <c r="AN204" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AO204" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.25">
@@ -27440,10 +27445,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F205" s="2">
         <v>0</v>
@@ -27548,10 +27553,10 @@
         <v>0</v>
       </c>
       <c r="AN205" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AO205" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:41" x14ac:dyDescent="0.25">
@@ -27565,10 +27570,10 @@
         <v>6</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F206" s="2">
         <v>0</v>
@@ -27673,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="AN206" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO206" s="5">
         <v>-1</v>
@@ -27690,10 +27695,10 @@
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F207" s="2">
         <v>0</v>
@@ -27798,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="AN207" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO207" s="5">
         <v>-1</v>
@@ -27815,10 +27820,10 @@
         <v>6</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F208" s="2">
         <v>0</v>
@@ -27923,7 +27928,7 @@
         <v>0</v>
       </c>
       <c r="AN208" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO208" s="5">
         <v>-1</v>
@@ -27940,10 +27945,10 @@
         <v>6</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F209" s="2">
         <v>0</v>
@@ -28048,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="AN209" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AO209" s="5">
         <v>-1</v>
@@ -28065,10 +28070,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F210" s="2">
         <v>0</v>
@@ -28173,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="AN210" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AO210" s="5">
         <v>-1</v>
@@ -28190,10 +28195,10 @@
         <v>6</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" s="2">
         <v>0</v>
@@ -28298,7 +28303,7 @@
         <v>0</v>
       </c>
       <c r="AN211" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AO211" s="5">
         <v>-1</v>
@@ -28315,10 +28320,10 @@
         <v>6</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" s="2">
         <v>0</v>
@@ -28423,7 +28428,7 @@
         <v>0</v>
       </c>
       <c r="AN212" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AO212" s="5">
         <v>-1</v>
@@ -28440,10 +28445,10 @@
         <v>6</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F213" s="2">
         <v>0</v>
@@ -28548,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="AN213" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AO213" s="5">
         <v>-1</v>
@@ -28565,10 +28570,10 @@
         <v>6</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F214" s="2">
         <v>0</v>
@@ -28673,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="AN214" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AO214" s="5">
         <v>-1</v>
@@ -28690,10 +28695,10 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" s="2">
         <v>0</v>
@@ -28798,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="AN215" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AO215" s="5">
         <v>-1</v>
@@ -28815,10 +28820,10 @@
         <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F216" s="2">
         <v>0</v>
@@ -28923,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="AN216" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO216" s="5">
         <v>-1</v>
@@ -28940,10 +28945,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F217" s="2">
         <v>0</v>
@@ -29048,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="AN217" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO217" s="5">
         <v>-1</v>
@@ -29065,10 +29070,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F218" s="2">
         <v>0</v>
@@ -29173,7 +29178,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AO218" s="5">
         <v>-1</v>
@@ -29190,10 +29195,10 @@
         <v>4</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F219" s="2">
         <v>0</v>
@@ -29298,7 +29303,7 @@
         <v>0</v>
       </c>
       <c r="AN219" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AO219" s="5">
         <v>-1</v>
@@ -29315,10 +29320,10 @@
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F220" s="2">
         <v>0</v>
@@ -29423,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO220" s="5">
         <v>-1</v>
@@ -29440,10 +29445,10 @@
         <v>4</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F221" s="2">
         <v>0</v>
@@ -29548,7 +29553,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO221" s="5">
         <v>-1</v>
@@ -29565,10 +29570,10 @@
         <v>4</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F222" s="2">
         <v>0</v>
@@ -29673,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO222" s="5">
         <v>-1</v>
@@ -29690,10 +29695,10 @@
         <v>4</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F223" s="2">
         <v>0</v>
@@ -29798,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO223" s="5">
         <v>-1</v>
@@ -29815,10 +29820,10 @@
         <v>4</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F224" s="2">
         <v>0</v>
@@ -29923,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO224" s="5">
         <v>-1</v>
@@ -29940,10 +29945,10 @@
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F225" s="2">
         <v>0</v>
@@ -30048,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO225" s="5">
         <v>-1</v>
@@ -30065,10 +30070,10 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F226" s="2">
         <v>0</v>
@@ -30173,7 +30178,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AO226" s="5">
         <v>-1</v>
@@ -30190,10 +30195,10 @@
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F227" s="2">
         <v>0</v>
@@ -30298,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AO227" s="5">
         <v>-1</v>
@@ -30315,10 +30320,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F228" s="2">
         <v>0</v>
@@ -30423,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="AN228" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AO228" s="5">
         <v>-1</v>
@@ -30440,10 +30445,10 @@
         <v>4</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F229" s="2">
         <v>0</v>
@@ -30548,7 +30553,7 @@
         <v>0</v>
       </c>
       <c r="AN229" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AO229" s="5">
         <v>-1</v>
@@ -30565,10 +30570,10 @@
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F230" s="2">
         <v>0</v>
@@ -30673,7 +30678,7 @@
         <v>0</v>
       </c>
       <c r="AN230" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AO230" s="5">
         <v>-1</v>
@@ -30690,10 +30695,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F231" s="2">
         <v>0</v>
@@ -30798,7 +30803,7 @@
         <v>0</v>
       </c>
       <c r="AN231" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AO231" s="5">
         <v>-1</v>
@@ -30815,10 +30820,10 @@
         <v>4</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F232" s="2">
         <v>0</v>
@@ -30923,7 +30928,7 @@
         <v>0</v>
       </c>
       <c r="AN232" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AO232" s="5">
         <v>-1</v>
@@ -30940,10 +30945,10 @@
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F233" s="2">
         <v>0</v>
@@ -31048,7 +31053,7 @@
         <v>0</v>
       </c>
       <c r="AN233" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AO233" s="5">
         <v>-1</v>
@@ -31065,10 +31070,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F234" s="2">
         <v>0</v>
@@ -31173,7 +31178,7 @@
         <v>0</v>
       </c>
       <c r="AN234" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AO234" s="5">
         <v>-1</v>
@@ -31190,10 +31195,10 @@
         <v>4</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F235" s="2">
         <v>0</v>
@@ -31298,7 +31303,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AO235" s="5">
         <v>-1</v>
@@ -31315,10 +31320,10 @@
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F236" s="2">
         <v>0</v>
@@ -31423,7 +31428,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AO236" s="5">
         <v>-1</v>
@@ -31440,10 +31445,10 @@
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F237" s="2">
         <v>0</v>
@@ -31548,7 +31553,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AO237" s="5">
         <v>-1</v>
@@ -31565,10 +31570,10 @@
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F238" s="2">
         <v>0</v>
@@ -31673,7 +31678,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AO238" s="5">
         <v>-1</v>
@@ -31690,10 +31695,10 @@
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F239" s="2">
         <v>0</v>
@@ -31798,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AO239" s="5">
         <v>-1</v>
@@ -31815,10 +31820,10 @@
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F240" s="2">
         <v>0</v>
@@ -31923,7 +31928,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AO240" s="5">
         <v>-1</v>
@@ -31940,10 +31945,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F241" s="2">
         <v>0</v>
@@ -32048,7 +32053,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AO241" s="5">
         <v>-1</v>
@@ -32065,10 +32070,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F242" s="2">
         <v>0</v>
@@ -32173,7 +32178,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AO242" s="5">
         <v>-1</v>
@@ -32190,10 +32195,10 @@
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F243" s="2">
         <v>0</v>
@@ -32298,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AO243" s="5">
         <v>-1</v>
@@ -32315,10 +32320,10 @@
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F244" s="2">
         <v>0</v>
@@ -32423,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AO244" s="5">
         <v>-1</v>
@@ -32440,10 +32445,10 @@
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F245" s="2">
         <v>0</v>
@@ -32548,7 +32553,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AO245" s="5">
         <v>-1</v>
@@ -32565,10 +32570,10 @@
         <v>2</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F246" s="2">
         <v>0</v>
@@ -32673,7 +32678,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AO246" s="5">
         <v>-1</v>
@@ -32690,10 +32695,10 @@
         <v>3</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F247" s="2">
         <v>0</v>
@@ -32798,7 +32803,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AO247" s="5">
         <v>-1</v>
@@ -32815,10 +32820,10 @@
         <v>3</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F248" s="2">
         <v>0</v>
@@ -32923,7 +32928,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AO248" s="5">
         <v>-1</v>
@@ -32940,10 +32945,10 @@
         <v>3</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F249" s="2">
         <v>0</v>
@@ -33048,7 +33053,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AO249" s="5">
         <v>-1</v>
@@ -33065,10 +33070,10 @@
         <v>4</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F250" s="2">
         <v>0</v>
@@ -33173,7 +33178,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AO250" s="5">
         <v>-1</v>
@@ -33190,10 +33195,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F251" s="2">
         <v>0</v>
@@ -33298,7 +33303,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AO251" s="5">
         <v>-1</v>
@@ -33315,10 +33320,10 @@
         <v>5</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F252" s="2">
         <v>0</v>
@@ -33423,7 +33428,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AO252" s="5">
         <v>-1</v>
@@ -33440,10 +33445,10 @@
         <v>5</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F253" s="2">
         <v>0</v>
@@ -33548,7 +33553,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AO253" s="5">
         <v>-1</v>
@@ -33565,10 +33570,10 @@
         <v>5</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F254" s="2">
         <v>0</v>
@@ -33673,7 +33678,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AO254" s="5">
         <v>-1</v>
@@ -33690,10 +33695,10 @@
         <v>5</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F255" s="2">
         <v>0</v>
@@ -33798,7 +33803,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AO255" s="5">
         <v>-1</v>
@@ -33815,10 +33820,10 @@
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F256" s="2">
         <v>0</v>
@@ -33923,7 +33928,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO256" s="5">
         <v>-1</v>
@@ -33940,10 +33945,10 @@
         <v>7</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F257" s="2">
         <v>0</v>
@@ -34048,7 +34053,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO257" s="5">
         <v>-1</v>
@@ -34065,10 +34070,10 @@
         <v>7</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F258" s="2">
         <v>0</v>
@@ -34173,7 +34178,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AO258" s="5">
         <v>-1</v>
@@ -34190,10 +34195,10 @@
         <v>7</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F259" s="2">
         <v>0</v>
@@ -34298,7 +34303,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AO259" s="5">
         <v>-1</v>
@@ -34315,10 +34320,10 @@
         <v>7</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F260" s="2">
         <v>0</v>
@@ -34423,7 +34428,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AO260" s="5">
         <v>-1</v>
@@ -34440,10 +34445,10 @@
         <v>7</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F261" s="2">
         <v>0</v>
@@ -34548,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AO261" s="5">
         <v>-1</v>
@@ -34565,10 +34570,10 @@
         <v>7</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F262" s="2">
         <v>0</v>
@@ -34673,7 +34678,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AO262" s="5">
         <v>-1</v>
@@ -34690,10 +34695,10 @@
         <v>7</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F263" s="2">
         <v>0</v>
@@ -34798,7 +34803,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AO263" s="5">
         <v>-1</v>
@@ -34815,10 +34820,10 @@
         <v>7</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F264" s="2">
         <v>0</v>
@@ -34923,7 +34928,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AO264" s="5">
         <v>-1</v>
@@ -34940,10 +34945,10 @@
         <v>7</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F265" s="2">
         <v>0</v>
@@ -35048,7 +35053,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AO265" s="5">
         <v>-1</v>
@@ -35065,10 +35070,10 @@
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F266" s="2">
         <v>0</v>
@@ -35173,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AO266" s="5">
         <v>-1</v>
@@ -35190,10 +35195,10 @@
         <v>5</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F267" s="2">
         <v>0</v>
@@ -35298,7 +35303,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AO267" s="5">
         <v>-1</v>
@@ -35315,10 +35320,10 @@
         <v>5</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F268" s="2">
         <v>0</v>
@@ -35423,7 +35428,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AO268" s="5">
         <v>-1</v>
@@ -35440,10 +35445,10 @@
         <v>5</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F269" s="2">
         <v>0</v>
@@ -35548,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AO269" s="5">
         <v>-1</v>
@@ -35565,10 +35570,10 @@
         <v>5</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F270" s="2">
         <v>0</v>
@@ -35673,7 +35678,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AO270" s="5">
         <v>-1</v>
@@ -35690,10 +35695,10 @@
         <v>5</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F271" s="2">
         <v>0</v>
@@ -35798,7 +35803,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO271" s="5">
         <v>-1</v>
@@ -35815,10 +35820,10 @@
         <v>5</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F272" s="2">
         <v>0</v>
@@ -35923,7 +35928,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO272" s="5">
         <v>-1</v>
@@ -35940,10 +35945,10 @@
         <v>5</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F273" s="2">
         <v>0</v>
@@ -36048,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO273" s="5">
         <v>-1</v>
@@ -36065,10 +36070,10 @@
         <v>5</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F274" s="2">
         <v>0</v>
@@ -36173,7 +36178,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AO274" s="5">
         <v>-1</v>
@@ -36190,10 +36195,10 @@
         <v>5</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F275" s="2">
         <v>0</v>
@@ -36298,7 +36303,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AO275" s="5">
         <v>-1</v>
@@ -36315,10 +36320,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F276" s="2">
         <v>0</v>
@@ -36423,7 +36428,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AO276" s="5">
         <v>-1</v>
@@ -36440,10 +36445,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F277" s="2">
         <v>0</v>
@@ -36548,7 +36553,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AO277" s="5">
         <v>-1</v>
@@ -36565,10 +36570,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F278" s="2">
         <v>0</v>
@@ -36673,7 +36678,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AO278" s="5">
         <v>-1</v>
@@ -36690,10 +36695,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F279" s="2">
         <v>0</v>
@@ -36798,7 +36803,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AO279" s="5">
         <v>-1</v>
@@ -36815,10 +36820,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F280" s="2">
         <v>0</v>
@@ -36923,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AO280" s="5">
         <v>-1</v>
@@ -36940,10 +36945,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F281" s="2">
         <v>0</v>
@@ -37048,7 +37053,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AO281" s="5">
         <v>-1</v>
@@ -37065,10 +37070,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F282" s="2">
         <v>0</v>
@@ -37173,7 +37178,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AO282" s="5">
         <v>-1</v>
@@ -37190,10 +37195,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F283" s="2">
         <v>0</v>
@@ -37298,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AO283" s="5">
         <v>-1</v>
@@ -37315,10 +37320,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F284" s="2">
         <v>0</v>
@@ -37423,7 +37428,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AO284" s="5">
         <v>-1</v>
@@ -37440,10 +37445,10 @@
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F285" s="2">
         <v>0</v>
@@ -37548,7 +37553,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AO285" s="5">
         <v>-1</v>
@@ -37565,10 +37570,10 @@
         <v>5</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F286" s="2">
         <v>0</v>
@@ -37673,7 +37678,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AO286" s="5">
         <v>-1</v>
@@ -37690,10 +37695,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F287" s="2">
         <v>0</v>
@@ -37798,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="AN287" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AO287" s="5">
         <v>-1</v>
@@ -37815,10 +37820,10 @@
         <v>5</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F288" s="2">
         <v>0</v>
@@ -37923,7 +37928,7 @@
         <v>0</v>
       </c>
       <c r="AN288" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AO288" s="5">
         <v>-1</v>
@@ -37940,10 +37945,10 @@
         <v>5</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F289" s="2">
         <v>0</v>
@@ -38048,7 +38053,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AO289" s="5">
         <v>-1</v>
@@ -38065,10 +38070,10 @@
         <v>5</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F290" s="2">
         <v>0</v>
@@ -38173,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="AN290" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO290" s="5">
         <v>-1</v>
@@ -38190,10 +38195,10 @@
         <v>6</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F291" s="2">
         <v>0</v>
@@ -38298,7 +38303,7 @@
         <v>0</v>
       </c>
       <c r="AN291" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO291" s="5">
         <v>-1</v>
@@ -38315,10 +38320,10 @@
         <v>7</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F292" s="2">
         <v>0</v>
@@ -38423,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AN292" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO292" s="5">
         <v>-1</v>
@@ -38440,10 +38445,10 @@
         <v>7</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F293" s="2">
         <v>0</v>
@@ -38548,7 +38553,7 @@
         <v>0</v>
       </c>
       <c r="AN293" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AO293" s="5">
         <v>-1</v>
@@ -38565,10 +38570,10 @@
         <v>7</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F294" s="2">
         <v>0</v>
@@ -38673,7 +38678,7 @@
         <v>0</v>
       </c>
       <c r="AN294" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AO294" s="5">
         <v>-1</v>
@@ -38690,10 +38695,10 @@
         <v>7</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F295" s="2">
         <v>0</v>
@@ -38798,7 +38803,7 @@
         <v>0</v>
       </c>
       <c r="AN295" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AO295" s="5">
         <v>-1</v>
@@ -38815,10 +38820,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F296" s="2">
         <v>0</v>
@@ -38923,7 +38928,7 @@
         <v>0</v>
       </c>
       <c r="AN296" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AO296" s="5">
         <v>-1</v>
@@ -38940,10 +38945,10 @@
         <v>5</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F297" s="2">
         <v>0</v>
@@ -39048,7 +39053,7 @@
         <v>0</v>
       </c>
       <c r="AN297" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AO297" s="5">
         <v>-1</v>
@@ -39065,10 +39070,10 @@
         <v>5</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F298" s="2">
         <v>0</v>
@@ -39173,7 +39178,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AO298" s="5">
         <v>-1</v>
@@ -39190,10 +39195,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F299" s="2">
         <v>0</v>
@@ -39298,7 +39303,7 @@
         <v>0</v>
       </c>
       <c r="AN299" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AO299" s="5">
         <v>-1</v>
@@ -39315,10 +39320,10 @@
         <v>5</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F300" s="2">
         <v>0</v>
@@ -39423,7 +39428,7 @@
         <v>0</v>
       </c>
       <c r="AN300" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO300" s="5">
         <v>-1</v>
@@ -39440,10 +39445,10 @@
         <v>5</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F301" s="2">
         <v>0</v>
@@ -39548,7 +39553,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO301" s="5">
         <v>-1</v>
@@ -39565,10 +39570,10 @@
         <v>5</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F302" s="2">
         <v>0</v>
@@ -39673,7 +39678,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AO302" s="5">
         <v>-1</v>
@@ -39690,10 +39695,10 @@
         <v>5</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F303" s="2">
         <v>0</v>
@@ -39798,7 +39803,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AO303" s="5">
         <v>-1</v>
@@ -39815,10 +39820,10 @@
         <v>5</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F304" s="2">
         <v>0</v>
@@ -39923,7 +39928,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AO304" s="5">
         <v>-1</v>
@@ -39940,10 +39945,10 @@
         <v>5</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F305" s="2">
         <v>0</v>
@@ -40048,7 +40053,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AO305" s="5">
         <v>-1</v>
@@ -40065,10 +40070,10 @@
         <v>7</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F306" s="2">
         <v>0</v>
@@ -40173,7 +40178,7 @@
         <v>0</v>
       </c>
       <c r="AN306" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AO306" s="5">
         <v>-1</v>
@@ -40190,10 +40195,10 @@
         <v>7</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F307" s="2">
         <v>0</v>
@@ -40298,7 +40303,7 @@
         <v>0</v>
       </c>
       <c r="AN307" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AO307" s="5">
         <v>-1</v>
@@ -40315,10 +40320,10 @@
         <v>7</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F308" s="2">
         <v>0</v>
@@ -40423,7 +40428,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AO308" s="5">
         <v>-1</v>
@@ -40440,10 +40445,10 @@
         <v>7</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F309" s="2">
         <v>0</v>
@@ -40548,7 +40553,7 @@
         <v>0</v>
       </c>
       <c r="AN309" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AO309" s="5">
         <v>-1</v>
@@ -40565,10 +40570,10 @@
         <v>7</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F310" s="2">
         <v>0</v>
@@ -40673,7 +40678,7 @@
         <v>0</v>
       </c>
       <c r="AN310" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AO310" s="5">
         <v>-1</v>
@@ -40690,10 +40695,10 @@
         <v>7</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F311" s="2">
         <v>0</v>
@@ -40798,7 +40803,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AO311" s="5">
         <v>-1</v>
@@ -40815,10 +40820,10 @@
         <v>7</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F312" s="2">
         <v>0</v>
@@ -40923,7 +40928,7 @@
         <v>0</v>
       </c>
       <c r="AN312" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AO312" s="5">
         <v>-1</v>
@@ -40940,10 +40945,10 @@
         <v>7</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F313" s="2">
         <v>0</v>
@@ -41048,7 +41053,7 @@
         <v>0</v>
       </c>
       <c r="AN313" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AO313" s="5">
         <v>-1</v>
@@ -41065,10 +41070,10 @@
         <v>7</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F314" s="2">
         <v>0</v>
@@ -41173,7 +41178,7 @@
         <v>0</v>
       </c>
       <c r="AN314" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AO314" s="5">
         <v>-1</v>
@@ -41190,10 +41195,10 @@
         <v>7</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F315" s="2">
         <v>0</v>
@@ -41298,7 +41303,7 @@
         <v>0</v>
       </c>
       <c r="AN315" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AO315" s="5">
         <v>-1</v>
@@ -41315,10 +41320,10 @@
         <v>6</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F316" s="2">
         <v>0</v>
@@ -41423,7 +41428,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO316" s="5">
         <v>-1</v>
@@ -41440,10 +41445,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F317" s="2">
         <v>0</v>
@@ -41548,7 +41553,7 @@
         <v>0</v>
       </c>
       <c r="AN317" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO317" s="5">
         <v>-1</v>
@@ -41565,10 +41570,10 @@
         <v>6</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F318" s="2">
         <v>0</v>
@@ -41673,7 +41678,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO318" s="5">
         <v>-1</v>
@@ -41690,10 +41695,10 @@
         <v>6</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F319" s="2">
         <v>0</v>
@@ -41798,7 +41803,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO319" s="5">
         <v>-1</v>
@@ -41815,10 +41820,10 @@
         <v>6</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F320" s="2">
         <v>0</v>
@@ -41923,7 +41928,7 @@
         <v>0</v>
       </c>
       <c r="AN320" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO320" s="5">
         <v>-1</v>
@@ -41940,10 +41945,10 @@
         <v>6</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F321" s="2">
         <v>0</v>
@@ -42048,7 +42053,7 @@
         <v>0</v>
       </c>
       <c r="AN321" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO321" s="5">
         <v>-1</v>
@@ -42065,10 +42070,10 @@
         <v>6</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F322" s="2">
         <v>0</v>
@@ -42173,7 +42178,7 @@
         <v>0</v>
       </c>
       <c r="AN322" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO322" s="5">
         <v>-1</v>
@@ -42190,10 +42195,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F323" s="2">
         <v>0</v>
@@ -42298,7 +42303,7 @@
         <v>0</v>
       </c>
       <c r="AN323" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO323" s="5">
         <v>-1</v>
@@ -42315,10 +42320,10 @@
         <v>6</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F324" s="2">
         <v>0</v>
@@ -42423,7 +42428,7 @@
         <v>0</v>
       </c>
       <c r="AN324" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AO324" s="5">
         <v>-1</v>
